--- a/WindowsFormsApp1/Reports/2.xlsx
+++ b/WindowsFormsApp1/Reports/2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_A_REALLY_BIG_SHIT\KATYA\WindowsFormsApp123\WindowsFormsApp1\Reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,6 +403,84 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -417,27 +490,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -445,72 +506,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -574,7 +569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,7 +604,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -786,7 +781,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -794,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,161 +802,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="31"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="24"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="34" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="37"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="33"/>
     </row>
     <row r="4" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="34" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="36" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1023,27 +1018,27 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="19"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
@@ -1067,355 +1062,300 @@
       <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="37"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <v>0</v>
-      </c>
-      <c r="S10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="21"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <v>0</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
+      <c r="A13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="19"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>0</v>
-      </c>
-      <c r="R14" s="10">
-        <v>0</v>
-      </c>
-      <c r="S14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="18"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10">
-        <v>0</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>0</v>
-      </c>
-      <c r="R18" s="10">
-        <v>0</v>
-      </c>
-      <c r="S18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="4" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>0</v>
+      </c>
+      <c r="R15" s="10">
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0</v>
-      </c>
-      <c r="K19" s="10">
-        <v>0</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <v>0</v>
-      </c>
-      <c r="N19" s="10">
-        <v>0</v>
-      </c>
-      <c r="O19" s="10">
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>0</v>
-      </c>
-      <c r="R19" s="10">
-        <v>0</v>
-      </c>
-      <c r="S19" s="10">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>0</v>
+      </c>
+      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="S16" s="10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A15:S15"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A13:S13"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="S4:S5"/>
@@ -1425,20 +1365,12 @@
     <mergeCell ref="M3:S3"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A11:S11"/>
+    <mergeCell ref="A10:S10"/>
     <mergeCell ref="A7:S7"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="I2:J4"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
